--- a/Configs/NPCName.xlsx
+++ b/Configs/NPCName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFA7509-4211-4F32-B07B-01DA43651ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFB5250-2C12-4186-A84D-FBF92F377689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7935" yWindow="2880" windowWidth="19192" windowHeight="10793" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="25102" windowHeight="12907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -588,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -599,7 +599,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -610,7 +610,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -621,12 +621,13 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Configs/NPCName.xlsx
+++ b/Configs/NPCName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFB5250-2C12-4186-A84D-FBF92F377689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CB1753-8BAB-4BF5-A19B-87D055F7E019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="25102" windowHeight="12907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5033" yWindow="2085" windowWidth="16582" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,35 +123,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘德华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张学友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭富城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黎明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貂蝉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王昭君</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨玉环</t>
+    <t>令狐冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁采臣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张无忌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘玄德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛村夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魁萨茨·哈德拉克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安纳金·天行者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>达斯维达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞尔达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱棣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍去病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛弃疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希尔瓦娜斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔萨斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉安娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聂小倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷加·坦格利安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盖侬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马萨伊尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戈塔什</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们家子涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周芷若</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慧慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霹雳霹雳大棒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yoi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakai Yuji</t>
+  </si>
+  <si>
+    <t>段川</t>
+  </si>
+  <si>
+    <t>silhouette</t>
+  </si>
+  <si>
+    <t>宜点点</t>
+  </si>
+  <si>
+    <t>Printemps noir</t>
+  </si>
+  <si>
+    <t>McNulty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钵钵鸡大人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -588,7 +707,7 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -599,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -610,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -621,7 +740,348 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>200009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>200010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>200011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>200012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>200013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>200014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>200015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>200016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>200017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>200018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>200019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>200020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>200021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>200022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>200023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>200024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>200025</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>200026</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>200027</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>200028</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>200029</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>200030</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>200031</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>200032</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>200033</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>200034</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>200035</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>200036</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>200037</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>200038</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>200039</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/NPCName.xlsx
+++ b/Configs/NPCName.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CB1753-8BAB-4BF5-A19B-87D055F7E019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A202D4F0-1774-4913-98A5-5E2F3B1BEB97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5033" yWindow="2085" windowWidth="16582" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16583" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魁萨茨·哈德拉克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安纳金·天行者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,9 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sakai Yuji</t>
-  </si>
-  <si>
     <t>段川</t>
   </si>
   <si>
@@ -259,9 +252,6 @@
     <t>宜点点</t>
   </si>
   <si>
-    <t>Printemps noir</t>
-  </si>
-  <si>
     <t>McNulty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +261,18 @@
   </si>
   <si>
     <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sakai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇智波佐助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -715,7 +717,7 @@
         <v>200006</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -726,7 +728,7 @@
         <v>200007</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -737,7 +739,7 @@
         <v>200008</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -748,7 +750,7 @@
         <v>200009</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>200010</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -770,7 +772,7 @@
         <v>200011</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -781,7 +783,7 @@
         <v>200012</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -792,7 +794,7 @@
         <v>200013</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -803,7 +805,7 @@
         <v>200014</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -814,7 +816,7 @@
         <v>200015</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -825,7 +827,7 @@
         <v>200016</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -836,7 +838,7 @@
         <v>200017</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -847,7 +849,7 @@
         <v>200018</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -858,7 +860,7 @@
         <v>200019</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -869,7 +871,7 @@
         <v>200020</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -880,7 +882,7 @@
         <v>200021</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -891,7 +893,7 @@
         <v>200022</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -902,7 +904,7 @@
         <v>200023</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -913,7 +915,7 @@
         <v>200024</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -924,7 +926,7 @@
         <v>200025</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -935,7 +937,7 @@
         <v>200026</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -946,7 +948,7 @@
         <v>200027</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -957,7 +959,7 @@
         <v>200028</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -968,7 +970,7 @@
         <v>200029</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -979,7 +981,7 @@
         <v>200030</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -990,7 +992,7 @@
         <v>200031</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1001,7 +1003,7 @@
         <v>200032</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1012,7 +1014,7 @@
         <v>200033</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1023,7 +1025,7 @@
         <v>200034</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1034,7 +1036,7 @@
         <v>200035</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1045,7 +1047,7 @@
         <v>200036</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1056,7 +1058,7 @@
         <v>200037</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1067,7 +1069,7 @@
         <v>200038</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1078,7 +1080,7 @@
         <v>200039</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>0</v>
